--- a/outputs/ML_Results/dist_LR/All_model_short_edit.xlsx
+++ b/outputs/ML_Results/dist_LR/All_model_short_edit.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_LR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15E23D6A-6450-4990-A511-D467DE192754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A058BF9-6024-4370-A7A8-BB602AFB3969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -623,15 +624,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1036,7 @@
       <c r="B2">
         <v>-2154.1889345958798</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>4.4578170757300301E-15</v>
       </c>
     </row>
@@ -1048,7 +1047,7 @@
       <c r="B3">
         <v>-2529.7541430589299</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>4.1596617510758499E-20</v>
       </c>
     </row>
@@ -1059,7 +1058,7 @@
       <c r="B4">
         <v>-1741.23974070187</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>1.08636247557045E-8</v>
       </c>
     </row>
@@ -1070,7 +1069,7 @@
       <c r="B5">
         <v>17.058527889089302</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2.5218623213801201E-2</v>
       </c>
     </row>
@@ -1079,9 +1078,9 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6705.7697763215601</v>
-      </c>
-      <c r="C6" s="1">
+        <v>67.0576977632157</v>
+      </c>
+      <c r="C6" s="7">
         <v>5.07000674420744E-26</v>
       </c>
     </row>
@@ -1092,7 +1091,7 @@
       <c r="B7">
         <v>116.248526458726</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>7.6224496057383001E-40</v>
       </c>
     </row>
@@ -1103,7 +1102,7 @@
       <c r="B8">
         <v>57.198882289834501</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>7.3897718530719996E-4</v>
       </c>
     </row>
@@ -1114,7 +1113,7 @@
       <c r="B9">
         <v>-3.1023679642869201E-2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>4.1196520000463201E-6</v>
       </c>
     </row>
@@ -1122,7 +1121,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>0.30392865918357198</v>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       <c r="B11">
         <v>-18.441335901507799</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>1.4803234696254101E-13</v>
       </c>
     </row>
@@ -1144,7 +1143,7 @@
       <c r="B12">
         <v>5.1256387190834998</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>2.25388622945988E-2</v>
       </c>
     </row>
@@ -1152,7 +1151,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>0.14349738349473101</v>
       </c>
     </row>
@@ -1163,7 +1162,7 @@
       <c r="B14">
         <v>-6.2657063626624003</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>1.12506879847233E-2</v>
       </c>
     </row>
@@ -1174,7 +1173,7 @@
       <c r="B15">
         <v>-20.208667419165401</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>1.9016220639620202E-9</v>
       </c>
     </row>
@@ -1190,11 +1189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1229,7 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="2">
@@ -1239,43 +1238,43 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>17.058527889089302</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
-        <v>6705.7697763215601</v>
+      <c r="B6" s="6">
+        <v>67.0576977632157</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>116.248526458726</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>57.198882289834501</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="3">
@@ -1284,70 +1283,64 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>-18.441335901507799</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>5.1256387190834998</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>-6.2657063626624003</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>-20.208667419165401</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C15">
